--- a/Data/Model Comparisons/Model_Comparisons_v1.xlsx
+++ b/Data/Model Comparisons/Model_Comparisons_v1.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartgow/GitHub/EEG_ML_Pipeline/Data/Model Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0485582-FABC-A44C-BD2B-762522806140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCAEDC9-E56A-1C4E-B56D-69A71A73005F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21880" yWindow="620" windowWidth="29320" windowHeight="26020" xr2:uid="{4EF99E70-5403-6B47-9FEC-848AE0CD045D}"/>
+    <workbookView xWindow="25400" yWindow="3040" windowWidth="27880" windowHeight="16940" xr2:uid="{72FD3ABC-35F6-DD46-8E40-52D9FE6A99D2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Conclusions" sheetId="4" r:id="rId1"/>
+    <sheet name="First Runs" sheetId="1" r:id="rId2"/>
+    <sheet name="Extract" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="152">
   <si>
     <t>Model</t>
   </si>
@@ -363,6 +365,139 @@
   </si>
   <si>
     <t>Very good TP but several FN</t>
+  </si>
+  <si>
+    <t>IOWA_Rest</t>
+  </si>
+  <si>
+    <t>('2_Feature_Selection_Training_Run_20250812_search_periodic_channel',)</t>
+  </si>
+  <si>
+    <t>(['channel'],)</t>
+  </si>
+  <si>
+    <t>([['cf', 'pw', 'bw']],)</t>
+  </si>
+  <si>
+    <t>{'classifier__criterion': 'entropy', 'classifier__max_depth': 10, 'classifier__max_leaf_nodes': None, 'classifier__n_estimators': 150, 'features_selection__features_detail_level': 'channel', 'features_selection__selected_features': ['cf', 'pw', 'bw']}</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>['cf', 'pw', 'bw']</t>
+  </si>
+  <si>
+    <t>RandomForest_v1</t>
+  </si>
+  <si>
+    <t>('2_Feature_Selection_Training_Run_20250813_search_subgroups',)</t>
+  </si>
+  <si>
+    <t>(['region', 'channel'],)</t>
+  </si>
+  <si>
+    <t>([['exp', 'offset'], ['cf', 'pw', 'bw'], ['age', 'gender']],)</t>
+  </si>
+  <si>
+    <t>{'classifier__activation': 'tanh', 'classifier__alpha': 0.1, 'classifier__batch_size': 'auto', 'classifier__hidden_layer_sizes': (50, 50), 'classifier__learning_rate_init': 0.001, 'classifier__max_iter': 1000, 'classifier__solver': 'adam', 'features_selection__features_detail_level': 'channel', 'features_selection__selected_features': ['exp', 'offset']}</t>
+  </si>
+  <si>
+    <t>['exp', 'offset']</t>
+  </si>
+  <si>
+    <t>MLPClassifier_v1</t>
+  </si>
+  <si>
+    <t>{'classifier__C': 1, 'classifier__class_weight': 'balanced', 'classifier__max_iter': 1000, 'classifier__penalty': 'l1', 'classifier__solver': 'liblinear', 'features_selection__features_detail_level': 'channel', 'features_selection__selected_features': ['cf', 'pw', 'bw']}</t>
+  </si>
+  <si>
+    <t>LogisticRegression_v1</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>training_source_data_run</t>
+  </si>
+  <si>
+    <t>training_results_run</t>
+  </si>
+  <si>
+    <t>search_features_detail</t>
+  </si>
+  <si>
+    <t>search_features_selection</t>
+  </si>
+  <si>
+    <t>CV_search_time</t>
+  </si>
+  <si>
+    <t>CV_best_parameters</t>
+  </si>
+  <si>
+    <t>features_detail</t>
+  </si>
+  <si>
+    <t>features_selection</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>prediction_time</t>
+  </si>
+  <si>
+    <t>mcc</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>specificity</t>
+  </si>
+  <si>
+    <t>('2_Feature_Selection_Training_Run_20250812_search_periodic_region',)</t>
+  </si>
+  <si>
+    <t>(['region'],)</t>
+  </si>
+  <si>
+    <t>{'classifier__criterion': 'entropy', 'classifier__max_depth': 10, 'classifier__max_leaf_nodes': 50, 'classifier__n_estimators': 150, 'features_selection__features_detail_level': 'region', 'features_selection__selected_features': ['cf', 'pw', 'bw']}</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>('2_Feature_Selection_Training_Run_20250813_search_aperiodic_region',)</t>
+  </si>
+  <si>
+    <t>([['exp', 'offset']],)</t>
+  </si>
+  <si>
+    <t>{'classifier__activation': 'relu', 'classifier__alpha': 0.1, 'classifier__batch_size': 'auto', 'classifier__hidden_layer_sizes': (50, 50), 'classifier__learning_rate_init': 0.0001, 'classifier__max_iter': 1000, 'classifier__solver': 'adam', 'features_selection__features_detail_level': 'region', 'features_selection__selected_features': ['exp', 'offset']}</t>
+  </si>
+  <si>
+    <t>{'classifier__C': 10, 'classifier__class_weight': None, 'classifier__max_iter': 1000, 'classifier__penalty': 'l1', 'classifier__solver': 'liblinear', 'features_selection__features_detail_level': 'region', 'features_selection__selected_features': ['cf', 'pw', 'bw']}</t>
+  </si>
+  <si>
+    <t>Top Two Models Per Model Type</t>
+  </si>
+  <si>
+    <t>Aperiodic</t>
+  </si>
+  <si>
+    <t>››</t>
+  </si>
+  <si>
+    <t>Run 
+Time</t>
   </si>
 </sst>
 </file>
@@ -407,7 +542,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,8 +585,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -558,11 +699,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -631,31 +790,92 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,11 +1216,695 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C4033D-58B5-094F-86A4-FB568BC9D1B8}">
+  <dimension ref="A1:AB27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+    <col min="18" max="18" width="2" customWidth="1"/>
+    <col min="19" max="19" width="2.33203125" customWidth="1"/>
+    <col min="20" max="20" width="17.83203125" customWidth="1"/>
+    <col min="28" max="28" width="2.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="37" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B3" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="50">
+        <v>3</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="50">
+        <v>9.4758856249973107</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" s="50">
+        <v>6.2812416988890604E-2</v>
+      </c>
+      <c r="M5" s="50">
+        <v>0.56937799043062198</v>
+      </c>
+      <c r="N5" s="50">
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="O5" s="50">
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="P5" s="50">
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="Q5" s="50">
+        <v>0.72727272727272696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="50">
+        <v>0</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="50">
+        <v>7.8896797919878701</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" s="50">
+        <v>5.3513499995460699E-2</v>
+      </c>
+      <c r="M6" s="50">
+        <v>0.43808582711518002</v>
+      </c>
+      <c r="N6" s="50">
+        <v>1</v>
+      </c>
+      <c r="O6" s="50">
+        <v>0.70370370370370305</v>
+      </c>
+      <c r="P6" s="50">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="Q6" s="50">
+        <v>0.27272727272727199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="50">
+        <v>11</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="50">
+        <v>30.170736916013901</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="50">
+        <v>6.3386250112671396E-3</v>
+      </c>
+      <c r="M7" s="50">
+        <v>0.39795757799683601</v>
+      </c>
+      <c r="N7" s="50">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="O7" s="50">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="P7" s="50">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="Q7" s="50">
+        <v>0.45454545454545398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="50">
+        <v>17</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="50">
+        <v>2.5997217079857302</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="50">
+        <v>3.7227499997243198E-3</v>
+      </c>
+      <c r="M8" s="50">
+        <v>0.20751433915982201</v>
+      </c>
+      <c r="N8" s="50">
+        <v>0.94736842105263097</v>
+      </c>
+      <c r="O8" s="50">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="P8" s="50">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="Q8" s="50">
+        <v>0.18181818181818099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="50">
+        <v>4</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="50">
+        <v>68.521575916005503</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="50">
+        <v>1.2745333020575299E-2</v>
+      </c>
+      <c r="M9" s="50">
+        <v>0.29578954665861401</v>
+      </c>
+      <c r="N9" s="50">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="O9" s="50">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="P9" s="50">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="Q9" s="50">
+        <v>0.72727272727272696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="50">
+        <v>1</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="50">
+        <v>4.7643824999977298</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="50">
+        <v>8.1201082997722496E-2</v>
+      </c>
+      <c r="M10" s="50">
+        <v>0.23441336786115</v>
+      </c>
+      <c r="N10" s="50">
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="O10" s="50">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="P10" s="50">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="Q10" s="50">
+        <v>0.36363636363636298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="S13" s="6"/>
+      <c r="T13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="V13" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="W13" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="6"/>
+    </row>
+    <row r="14" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="6"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="6"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="S15" s="6"/>
+      <c r="T15" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="V15" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="W15" s="44">
+        <f>L5</f>
+        <v>6.2812416988890604E-2</v>
+      </c>
+      <c r="X15" s="44">
+        <f>M5</f>
+        <v>0.56937799043062198</v>
+      </c>
+      <c r="Y15" s="44">
+        <f>N5</f>
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="Z15" s="44">
+        <f>O5</f>
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="AA15" s="44">
+        <f>Q5</f>
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="AB15" s="6"/>
+    </row>
+    <row r="16" spans="1:28" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="6"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W16" s="2">
+        <f>L6</f>
+        <v>5.3513499995460699E-2</v>
+      </c>
+      <c r="X16" s="2">
+        <f>M6</f>
+        <v>0.43808582711518002</v>
+      </c>
+      <c r="Y16" s="2">
+        <f>N6</f>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="2">
+        <f>O6</f>
+        <v>0.70370370370370305</v>
+      </c>
+      <c r="AA16" s="2">
+        <f>Q6</f>
+        <v>0.27272727272727199</v>
+      </c>
+      <c r="AB16" s="6"/>
+    </row>
+    <row r="17" spans="19:28" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="6"/>
+      <c r="T17" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="V17" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="W17" s="44">
+        <f>L7</f>
+        <v>6.3386250112671396E-3</v>
+      </c>
+      <c r="X17" s="44">
+        <f>M7</f>
+        <v>0.39795757799683601</v>
+      </c>
+      <c r="Y17" s="44">
+        <f>N7</f>
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="Z17" s="44">
+        <f>O7</f>
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="AA17" s="45">
+        <f>Q7</f>
+        <v>0.45454545454545398</v>
+      </c>
+      <c r="AB17" s="6"/>
+    </row>
+    <row r="18" spans="19:28" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S18" s="6"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="W18" s="4">
+        <f>L8</f>
+        <v>3.7227499997243198E-3</v>
+      </c>
+      <c r="X18" s="4">
+        <f>M8</f>
+        <v>0.20751433915982201</v>
+      </c>
+      <c r="Y18" s="4">
+        <f>N8</f>
+        <v>0.94736842105263097</v>
+      </c>
+      <c r="Z18" s="4">
+        <f>O8</f>
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="AA18" s="46">
+        <f>Q8</f>
+        <v>0.18181818181818099</v>
+      </c>
+      <c r="AB18" s="6"/>
+    </row>
+    <row r="19" spans="19:28" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S19" s="6"/>
+      <c r="T19" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="V19" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="W19" s="44">
+        <f>L9</f>
+        <v>1.2745333020575299E-2</v>
+      </c>
+      <c r="X19" s="44">
+        <f>M9</f>
+        <v>0.29578954665861401</v>
+      </c>
+      <c r="Y19" s="44">
+        <f>N9</f>
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="Z19" s="44">
+        <f>O9</f>
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="AA19" s="44">
+        <f>Q9</f>
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="AB19" s="6"/>
+    </row>
+    <row r="20" spans="19:28" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S20" s="6"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W20" s="4">
+        <f>L10</f>
+        <v>8.1201082997722496E-2</v>
+      </c>
+      <c r="X20" s="4">
+        <f>M10</f>
+        <v>0.23441336786115</v>
+      </c>
+      <c r="Y20" s="4">
+        <f>N10</f>
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="Z20" s="4">
+        <f>O10</f>
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="AA20" s="4">
+        <f>Q10</f>
+        <v>0.36363636363636298</v>
+      </c>
+      <c r="AB20" s="6"/>
+    </row>
+    <row r="21" spans="19:28" x14ac:dyDescent="0.2">
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+    </row>
+    <row r="22" spans="19:28" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+    </row>
+    <row r="27" spans="19:28" x14ac:dyDescent="0.2">
+      <c r="X27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87625442-3BD6-D848-B867-F3AC6454CEE0}">
   <dimension ref="A1:U144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1039,46 +1943,46 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="32" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="33"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="36"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
-      <c r="J5" s="29"/>
+      <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1273,46 +2177,46 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="32" t="s">
         <v>5</v>
       </c>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="33"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
-      <c r="G22" s="36"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="29"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -1509,46 +2413,46 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G37" s="35" t="s">
+      <c r="G37" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="34" t="s">
+      <c r="H37" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="34" t="s">
+      <c r="I37" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J37" s="28" t="s">
+      <c r="J37" s="32" t="s">
         <v>5</v>
       </c>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="33"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="31"/>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
-      <c r="G38" s="36"/>
+      <c r="G38" s="29"/>
       <c r="H38" s="31"/>
       <c r="I38" s="31"/>
-      <c r="J38" s="29"/>
+      <c r="J38" s="33"/>
       <c r="K38" s="6"/>
       <c r="N38" t="s">
         <v>92</v>
@@ -1756,46 +2660,46 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="34" t="s">
+      <c r="F53" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G53" s="35" t="s">
+      <c r="G53" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="34" t="s">
+      <c r="H53" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I53" s="34" t="s">
+      <c r="I53" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J53" s="28" t="s">
+      <c r="J53" s="32" t="s">
         <v>5</v>
       </c>
       <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
-      <c r="B54" s="33"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="31"/>
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
       <c r="F54" s="31"/>
-      <c r="G54" s="36"/>
+      <c r="G54" s="29"/>
       <c r="H54" s="31"/>
       <c r="I54" s="31"/>
-      <c r="J54" s="29"/>
+      <c r="J54" s="33"/>
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2013,46 +2917,46 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E70" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="34" t="s">
+      <c r="F70" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G70" s="35" t="s">
+      <c r="G70" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="34" t="s">
+      <c r="H70" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I70" s="34" t="s">
+      <c r="I70" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J70" s="28" t="s">
+      <c r="J70" s="32" t="s">
         <v>5</v>
       </c>
       <c r="K70" s="6"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
-      <c r="B71" s="33"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="31"/>
       <c r="D71" s="31"/>
       <c r="E71" s="31"/>
       <c r="F71" s="31"/>
-      <c r="G71" s="36"/>
+      <c r="G71" s="29"/>
       <c r="H71" s="31"/>
       <c r="I71" s="31"/>
-      <c r="J71" s="29"/>
+      <c r="J71" s="33"/>
       <c r="K71" s="6"/>
     </row>
     <row r="72" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -2256,46 +3160,46 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D87" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="30" t="s">
+      <c r="E87" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="34" t="s">
+      <c r="F87" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G87" s="35" t="s">
+      <c r="G87" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H87" s="34" t="s">
+      <c r="H87" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I87" s="34" t="s">
+      <c r="I87" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J87" s="28" t="s">
+      <c r="J87" s="32" t="s">
         <v>5</v>
       </c>
       <c r="K87" s="6"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
-      <c r="B88" s="33"/>
+      <c r="B88" s="35"/>
       <c r="C88" s="31"/>
       <c r="D88" s="31"/>
       <c r="E88" s="31"/>
       <c r="F88" s="31"/>
-      <c r="G88" s="36"/>
+      <c r="G88" s="29"/>
       <c r="H88" s="31"/>
       <c r="I88" s="31"/>
-      <c r="J88" s="29"/>
+      <c r="J88" s="33"/>
       <c r="K88" s="6"/>
     </row>
     <row r="89" spans="1:21" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -2518,46 +3422,46 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
-      <c r="B104" s="32" t="s">
+      <c r="B104" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C104" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D104" s="30" t="s">
+      <c r="D104" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E104" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="34" t="s">
+      <c r="F104" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G104" s="35" t="s">
+      <c r="G104" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H104" s="34" t="s">
+      <c r="H104" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I104" s="34" t="s">
+      <c r="I104" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J104" s="28" t="s">
+      <c r="J104" s="32" t="s">
         <v>5</v>
       </c>
       <c r="K104" s="6"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
-      <c r="B105" s="33"/>
+      <c r="B105" s="35"/>
       <c r="C105" s="31"/>
       <c r="D105" s="31"/>
       <c r="E105" s="31"/>
       <c r="F105" s="31"/>
-      <c r="G105" s="36"/>
+      <c r="G105" s="29"/>
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
-      <c r="J105" s="29"/>
+      <c r="J105" s="33"/>
       <c r="K105" s="6"/>
     </row>
     <row r="106" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2764,46 +3668,46 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
-      <c r="B120" s="32" t="s">
+      <c r="B120" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C120" s="30" t="s">
+      <c r="C120" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="30" t="s">
+      <c r="D120" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="30" t="s">
+      <c r="E120" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="34" t="s">
+      <c r="F120" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G120" s="35" t="s">
+      <c r="G120" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H120" s="34" t="s">
+      <c r="H120" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I120" s="34" t="s">
+      <c r="I120" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J120" s="28" t="s">
+      <c r="J120" s="32" t="s">
         <v>5</v>
       </c>
       <c r="K120" s="6"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
-      <c r="B121" s="33"/>
+      <c r="B121" s="35"/>
       <c r="C121" s="31"/>
       <c r="D121" s="31"/>
       <c r="E121" s="31"/>
       <c r="F121" s="31"/>
-      <c r="G121" s="36"/>
+      <c r="G121" s="29"/>
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
-      <c r="J121" s="29"/>
+      <c r="J121" s="33"/>
       <c r="K121" s="6"/>
     </row>
     <row r="122" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3019,30 +3923,38 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
     <mergeCell ref="G104:G105"/>
     <mergeCell ref="H104:H105"/>
     <mergeCell ref="I104:I105"/>
@@ -3059,39 +3971,415 @@
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD7C3A7-B8E1-A24A-8DCC-865932D639EE}">
+  <dimension ref="A3:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:17" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B3" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5">
+        <v>9.4758856249973107</v>
+      </c>
+      <c r="H5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5">
+        <v>6.2812416988890604E-2</v>
+      </c>
+      <c r="M5">
+        <v>0.56937799043062198</v>
+      </c>
+      <c r="N5">
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="O5">
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="P5">
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="Q5">
+        <v>0.72727272727272696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6">
+        <v>7.8896797919878701</v>
+      </c>
+      <c r="H6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6">
+        <v>5.3513499995460699E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.43808582711518002</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0.70370370370370305</v>
+      </c>
+      <c r="P6">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="Q6">
+        <v>0.27272727272727199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7">
+        <v>30.170736916013901</v>
+      </c>
+      <c r="H7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7">
+        <v>6.3386250112671396E-3</v>
+      </c>
+      <c r="M7">
+        <v>0.39795757799683601</v>
+      </c>
+      <c r="N7">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="O7">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="P7">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="Q7">
+        <v>0.45454545454545398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8">
+        <v>2.5997217079857302</v>
+      </c>
+      <c r="H8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8">
+        <v>3.7227499997243198E-3</v>
+      </c>
+      <c r="M8">
+        <v>0.20751433915982201</v>
+      </c>
+      <c r="N8">
+        <v>0.94736842105263097</v>
+      </c>
+      <c r="O8">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="P8">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="Q8">
+        <v>0.18181818181818099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9">
+        <v>68.521575916005503</v>
+      </c>
+      <c r="H9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9">
+        <v>1.2745333020575299E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.29578954665861401</v>
+      </c>
+      <c r="N9">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="O9">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="P9">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="Q9">
+        <v>0.72727272727272696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10">
+        <v>4.7643824999977298</v>
+      </c>
+      <c r="H10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10">
+        <v>8.1201082997722496E-2</v>
+      </c>
+      <c r="M10">
+        <v>0.23441336786115</v>
+      </c>
+      <c r="N10">
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="O10">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="P10">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="Q10">
+        <v>0.36363636363636298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Model Comparisons/Model_Comparisons_v1.xlsx
+++ b/Data/Model Comparisons/Model_Comparisons_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartgow/GitHub/EEG_ML_Pipeline/Data/Model Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCAEDC9-E56A-1C4E-B56D-69A71A73005F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEE82A4-6E0B-B84E-B5F5-9A0AED6833DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25400" yWindow="3040" windowWidth="27880" windowHeight="16940" xr2:uid="{72FD3ABC-35F6-DD46-8E40-52D9FE6A99D2}"/>
+    <workbookView xWindow="10020" yWindow="2280" windowWidth="39420" windowHeight="24340" xr2:uid="{72FD3ABC-35F6-DD46-8E40-52D9FE6A99D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Conclusions" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="158">
   <si>
     <t>Model</t>
   </si>
@@ -493,11 +493,30 @@
     <t>Aperiodic</t>
   </si>
   <si>
-    <t>››</t>
-  </si>
-  <si>
     <t>Run 
 Time</t>
+  </si>
+  <si>
+    <t>Ground Truth</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Adjusted
+(&gt; 65%)</t>
   </si>
 </sst>
 </file>
@@ -592,7 +611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -709,6 +728,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -717,11 +751,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -832,7 +879,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -877,6 +924,63 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1217,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C4033D-58B5-094F-86A4-FB568BC9D1B8}">
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AI55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1235,14 +1339,16 @@
     <col min="19" max="19" width="2.33203125" customWidth="1"/>
     <col min="20" max="20" width="17.83203125" customWidth="1"/>
     <col min="28" max="28" width="2.6640625" customWidth="1"/>
+    <col min="29" max="29" width="7.83203125" style="60" customWidth="1"/>
+    <col min="34" max="34" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="37" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="37" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>124</v>
       </c>
@@ -1291,8 +1397,9 @@
       <c r="Q3" s="38" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC3" s="61"/>
+    </row>
+    <row r="5" spans="1:35" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50">
         <v>3</v>
       </c>
@@ -1344,8 +1451,9 @@
       <c r="Q5" s="50">
         <v>0.72727272727272696</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC5" s="62"/>
+    </row>
+    <row r="6" spans="1:35" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50">
         <v>0</v>
       </c>
@@ -1397,8 +1505,9 @@
       <c r="Q6" s="50">
         <v>0.27272727272727199</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC6" s="62"/>
+    </row>
+    <row r="7" spans="1:35" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50">
         <v>11</v>
       </c>
@@ -1450,8 +1559,9 @@
       <c r="Q7" s="50">
         <v>0.45454545454545398</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC7" s="62"/>
+    </row>
+    <row r="8" spans="1:35" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50">
         <v>17</v>
       </c>
@@ -1503,8 +1613,9 @@
       <c r="Q8" s="50">
         <v>0.18181818181818099</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC8" s="62"/>
+    </row>
+    <row r="9" spans="1:35" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="50">
         <v>4</v>
       </c>
@@ -1556,8 +1667,9 @@
       <c r="Q9" s="50">
         <v>0.72727272727272696</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC9" s="62"/>
+    </row>
+    <row r="10" spans="1:35" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50">
         <v>1</v>
       </c>
@@ -1609,9 +1721,12 @@
       <c r="Q10" s="50">
         <v>0.36363636363636298</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="62"/>
+    </row>
+    <row r="11" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB11" s="6"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -1622,8 +1737,15 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+    </row>
+    <row r="13" spans="1:35" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S13" s="6"/>
       <c r="T13" s="34" t="s">
         <v>0</v>
@@ -1635,7 +1757,7 @@
         <v>13</v>
       </c>
       <c r="W13" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X13" s="56" t="s">
         <v>5</v>
@@ -1650,8 +1772,9 @@
         <v>4</v>
       </c>
       <c r="AB13" s="6"/>
-    </row>
-    <row r="14" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH13" s="6"/>
+    </row>
+    <row r="14" spans="1:35" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S14" s="6"/>
       <c r="T14" s="40"/>
       <c r="U14" s="48"/>
@@ -1662,8 +1785,9 @@
       <c r="Z14" s="48"/>
       <c r="AA14" s="48"/>
       <c r="AB14" s="6"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AH14" s="6"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="S15" s="6"/>
       <c r="T15" s="52" t="s">
         <v>6</v>
@@ -1695,8 +1819,9 @@
         <v>0.72727272727272696</v>
       </c>
       <c r="AB15" s="6"/>
-    </row>
-    <row r="16" spans="1:28" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH15" s="6"/>
+    </row>
+    <row r="16" spans="1:35" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S16" s="6"/>
       <c r="T16" s="53"/>
       <c r="U16" s="39" t="s">
@@ -1726,8 +1851,9 @@
         <v>0.27272727272727199</v>
       </c>
       <c r="AB16" s="6"/>
-    </row>
-    <row r="17" spans="19:28" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH16" s="6"/>
+    </row>
+    <row r="17" spans="19:35" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S17" s="6"/>
       <c r="T17" s="52" t="s">
         <v>8</v>
@@ -1759,8 +1885,9 @@
         <v>0.45454545454545398</v>
       </c>
       <c r="AB17" s="6"/>
-    </row>
-    <row r="18" spans="19:28" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH17" s="6"/>
+    </row>
+    <row r="18" spans="19:35" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S18" s="6"/>
       <c r="T18" s="54"/>
       <c r="U18" s="39" t="s">
@@ -1790,8 +1917,9 @@
         <v>0.18181818181818099</v>
       </c>
       <c r="AB18" s="6"/>
-    </row>
-    <row r="19" spans="19:28" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH18" s="6"/>
+    </row>
+    <row r="19" spans="19:35" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S19" s="6"/>
       <c r="T19" s="55" t="s">
         <v>7</v>
@@ -1823,8 +1951,9 @@
         <v>0.72727272727272696</v>
       </c>
       <c r="AB19" s="6"/>
-    </row>
-    <row r="20" spans="19:28" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH19" s="6"/>
+    </row>
+    <row r="20" spans="19:35" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S20" s="6"/>
       <c r="T20" s="41"/>
       <c r="U20" s="39" t="s">
@@ -1854,8 +1983,9 @@
         <v>0.36363636363636298</v>
       </c>
       <c r="AB20" s="6"/>
-    </row>
-    <row r="21" spans="19:28" x14ac:dyDescent="0.2">
+      <c r="AH20" s="6"/>
+    </row>
+    <row r="21" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
@@ -1866,23 +1996,638 @@
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
-    </row>
-    <row r="22" spans="19:28" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
+      <c r="AH21" s="6"/>
+    </row>
+    <row r="22" spans="19:35" x14ac:dyDescent="0.2">
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
-    </row>
-    <row r="27" spans="19:28" x14ac:dyDescent="0.2">
-      <c r="X27" t="s">
-        <v>150</v>
-      </c>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+    </row>
+    <row r="23" spans="19:35" ht="34" x14ac:dyDescent="0.2">
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD23" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE23" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF23" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG23" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+    </row>
+    <row r="24" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="65">
+        <v>73</v>
+      </c>
+      <c r="AD24" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE24" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF24" s="70">
+        <v>0.56666666666666599</v>
+      </c>
+      <c r="AG24" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+    </row>
+    <row r="25" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="65">
+        <v>12</v>
+      </c>
+      <c r="AD25" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE25" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF25" s="67">
+        <v>0.94666666666666599</v>
+      </c>
+      <c r="AG25" s="64"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+    </row>
+    <row r="26" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="65">
+        <v>45</v>
+      </c>
+      <c r="AD26" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE26" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF26" s="67">
+        <v>0.76666666666666605</v>
+      </c>
+      <c r="AG26" s="64"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+    </row>
+    <row r="27" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="65">
+        <v>26</v>
+      </c>
+      <c r="AD27" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE27" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF27" s="67">
+        <v>0.8</v>
+      </c>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+    </row>
+    <row r="28" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="65">
+        <v>29</v>
+      </c>
+      <c r="AD28" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE28" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF28" s="67">
+        <v>0.65333333333333299</v>
+      </c>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+    </row>
+    <row r="29" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="65">
+        <v>55</v>
+      </c>
+      <c r="AD29" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE29" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF29" s="67">
+        <v>0.50095238095238004</v>
+      </c>
+      <c r="AG29" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+    </row>
+    <row r="30" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="65">
+        <v>69</v>
+      </c>
+      <c r="AD30" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE30" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF30" s="67">
+        <v>0.81238095238095198</v>
+      </c>
+      <c r="AG30" s="64"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+    </row>
+    <row r="31" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="65">
+        <v>18</v>
+      </c>
+      <c r="AD31" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE31" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF31" s="67">
+        <v>0.85333333333333306</v>
+      </c>
+      <c r="AG31" s="64"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+    </row>
+    <row r="32" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="65">
+        <v>19</v>
+      </c>
+      <c r="AD32" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE32" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF32" s="67">
+        <v>0.89904761904761898</v>
+      </c>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+    </row>
+    <row r="33" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="65">
+        <v>9</v>
+      </c>
+      <c r="AD33" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE33" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF33" s="67">
+        <v>0.98666666666666603</v>
+      </c>
+      <c r="AG33" s="64"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+    </row>
+    <row r="34" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="65">
+        <v>36</v>
+      </c>
+      <c r="AD34" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE34" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF34" s="67">
+        <v>0.84</v>
+      </c>
+      <c r="AG34" s="64"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+    </row>
+    <row r="35" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="65">
+        <v>56</v>
+      </c>
+      <c r="AD35" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE35" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF35" s="67">
+        <v>0.832380952380952</v>
+      </c>
+      <c r="AG35" s="64"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+    </row>
+    <row r="36" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="65">
+        <v>30</v>
+      </c>
+      <c r="AD36" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE36" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF36" s="67">
+        <v>0.71333333333333304</v>
+      </c>
+      <c r="AG36" s="64"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+    </row>
+    <row r="37" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="65">
+        <v>68</v>
+      </c>
+      <c r="AD37" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE37" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF37" s="67">
+        <v>0.89333333333333298</v>
+      </c>
+      <c r="AG37" s="64"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+    </row>
+    <row r="38" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="65">
+        <v>64</v>
+      </c>
+      <c r="AD38" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE38" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF38" s="67">
+        <v>0.586666666666666</v>
+      </c>
+      <c r="AG38" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+    </row>
+    <row r="39" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="65">
+        <v>31</v>
+      </c>
+      <c r="AD39" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE39" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF39" s="67">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="AG39" s="64"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+    </row>
+    <row r="40" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="65">
+        <v>76</v>
+      </c>
+      <c r="AD40" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE40" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF40" s="67">
+        <v>0.85333333333333306</v>
+      </c>
+      <c r="AG40" s="64"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+    </row>
+    <row r="41" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="65">
+        <v>82</v>
+      </c>
+      <c r="AD41" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE41" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF41" s="67">
+        <v>0.88</v>
+      </c>
+      <c r="AG41" s="64"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+    </row>
+    <row r="42" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="65">
+        <v>78</v>
+      </c>
+      <c r="AD42" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE42" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF42" s="67">
+        <v>0.95333333333333303</v>
+      </c>
+      <c r="AG42" s="64"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+    </row>
+    <row r="43" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="65">
+        <v>128</v>
+      </c>
+      <c r="AD43" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE43" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF43" s="67">
+        <v>0.52666666666666595</v>
+      </c>
+      <c r="AG43" s="64"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+    </row>
+    <row r="44" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="65">
+        <v>117</v>
+      </c>
+      <c r="AD44" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE44" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF44" s="67">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AG44" s="64"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="6"/>
+    </row>
+    <row r="45" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="65">
+        <v>101</v>
+      </c>
+      <c r="AD45" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE45" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF45" s="67">
+        <v>0.57333333333333303</v>
+      </c>
+      <c r="AG45" s="64"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+    </row>
+    <row r="46" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="65">
+        <v>110</v>
+      </c>
+      <c r="AD46" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE46" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF46" s="67">
+        <v>0.60666666666666602</v>
+      </c>
+      <c r="AG46" s="64"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="6"/>
+    </row>
+    <row r="47" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="65">
+        <v>144</v>
+      </c>
+      <c r="AD47" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE47" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF47" s="67">
+        <v>0.52666666666666595</v>
+      </c>
+      <c r="AG47" s="64"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+    </row>
+    <row r="48" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="65">
+        <v>109</v>
+      </c>
+      <c r="AD48" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE48" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF48" s="67">
+        <v>0.54666666666666597</v>
+      </c>
+      <c r="AG48" s="64"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+    </row>
+    <row r="49" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="65">
+        <v>127</v>
+      </c>
+      <c r="AD49" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE49" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF49" s="67">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AG49" s="63"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+    </row>
+    <row r="50" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="65">
+        <v>131</v>
+      </c>
+      <c r="AD50" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE50" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF50" s="67">
+        <v>0.64666666666666595</v>
+      </c>
+      <c r="AG50" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="6"/>
+    </row>
+    <row r="51" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="65">
+        <v>136</v>
+      </c>
+      <c r="AD51" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE51" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF51" s="67">
+        <v>0.78</v>
+      </c>
+      <c r="AG51" s="63"/>
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="6"/>
+    </row>
+    <row r="52" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="65">
+        <v>140</v>
+      </c>
+      <c r="AD52" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE52" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF52" s="67">
+        <v>0.50666666666666604</v>
+      </c>
+      <c r="AG52" s="64"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="6"/>
+    </row>
+    <row r="53" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="66">
+        <v>123</v>
+      </c>
+      <c r="AD53" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE53" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF53" s="75">
+        <v>0.62666666666666604</v>
+      </c>
+      <c r="AG53" s="76"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+    </row>
+    <row r="54" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="68"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="6"/>
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+    </row>
+    <row r="55" spans="27:35" x14ac:dyDescent="0.2">
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="68"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1903,7 +2648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87625442-3BD6-D848-B867-F3AC6454CEE0}">
   <dimension ref="A1:U144"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>

--- a/Data/Model Comparisons/Model_Comparisons_v1.xlsx
+++ b/Data/Model Comparisons/Model_Comparisons_v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartgow/GitHub/EEG_ML_Pipeline/Data/Model Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEE82A4-6E0B-B84E-B5F5-9A0AED6833DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BABA48B-96A5-0E4B-852A-3754774467C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10020" yWindow="2280" windowWidth="39420" windowHeight="24340" xr2:uid="{72FD3ABC-35F6-DD46-8E40-52D9FE6A99D2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="158">
   <si>
     <t>Model</t>
   </si>
@@ -515,8 +515,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>Adjusted
-(&gt; 65%)</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -768,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -837,33 +836,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -873,9 +845,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -893,15 +862,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -919,68 +879,95 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C4033D-58B5-094F-86A4-FB568BC9D1B8}">
   <dimension ref="A1:AI55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="J12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1339,7 +1326,7 @@
     <col min="19" max="19" width="2.33203125" customWidth="1"/>
     <col min="20" max="20" width="17.83203125" customWidth="1"/>
     <col min="28" max="28" width="2.6640625" customWidth="1"/>
-    <col min="29" max="29" width="7.83203125" style="60" customWidth="1"/>
+    <col min="29" max="29" width="7.83203125" style="45" customWidth="1"/>
     <col min="34" max="34" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1348,380 +1335,380 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="1:35" s="28" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B3" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="AC3" s="61"/>
-    </row>
-    <row r="5" spans="1:35" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50">
+      <c r="AC3" s="46"/>
+    </row>
+    <row r="5" spans="1:35" s="37" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="37">
         <v>3</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="37">
         <v>9.4758856249973107</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="L5" s="50">
+      <c r="L5" s="37">
         <v>6.2812416988890604E-2</v>
       </c>
-      <c r="M5" s="50">
+      <c r="M5" s="37">
         <v>0.56937799043062198</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="37">
         <v>0.84210526315789402</v>
       </c>
-      <c r="O5" s="50">
+      <c r="O5" s="37">
         <v>0.84210526315789402</v>
       </c>
-      <c r="P5" s="50">
+      <c r="P5" s="37">
         <v>0.84210526315789402</v>
       </c>
-      <c r="Q5" s="50">
+      <c r="Q5" s="37">
         <v>0.72727272727272696</v>
       </c>
-      <c r="AC5" s="62"/>
-    </row>
-    <row r="6" spans="1:35" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50">
+      <c r="AC5" s="47"/>
+    </row>
+    <row r="6" spans="1:35" s="37" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="37">
         <v>0</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="37">
         <v>7.8896797919878701</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="L6" s="50">
+      <c r="L6" s="37">
         <v>5.3513499995460699E-2</v>
       </c>
-      <c r="M6" s="50">
+      <c r="M6" s="37">
         <v>0.43808582711518002</v>
       </c>
-      <c r="N6" s="50">
+      <c r="N6" s="37">
         <v>1</v>
       </c>
-      <c r="O6" s="50">
+      <c r="O6" s="37">
         <v>0.70370370370370305</v>
       </c>
-      <c r="P6" s="50">
+      <c r="P6" s="37">
         <v>0.82608695652173902</v>
       </c>
-      <c r="Q6" s="50">
+      <c r="Q6" s="37">
         <v>0.27272727272727199</v>
       </c>
-      <c r="AC6" s="62"/>
-    </row>
-    <row r="7" spans="1:35" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50">
+      <c r="AC6" s="47"/>
+    </row>
+    <row r="7" spans="1:35" s="37" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="37">
         <v>11</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="37">
         <v>30.170736916013901</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="L7" s="50">
+      <c r="L7" s="37">
         <v>6.3386250112671396E-3</v>
       </c>
-      <c r="M7" s="50">
+      <c r="M7" s="37">
         <v>0.39795757799683601</v>
       </c>
-      <c r="N7" s="50">
+      <c r="N7" s="37">
         <v>0.89473684210526305</v>
       </c>
-      <c r="O7" s="50">
+      <c r="O7" s="37">
         <v>0.73913043478260798</v>
       </c>
-      <c r="P7" s="50">
+      <c r="P7" s="37">
         <v>0.80952380952380898</v>
       </c>
-      <c r="Q7" s="50">
+      <c r="Q7" s="37">
         <v>0.45454545454545398</v>
       </c>
-      <c r="AC7" s="62"/>
-    </row>
-    <row r="8" spans="1:35" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50">
+      <c r="AC7" s="47"/>
+    </row>
+    <row r="8" spans="1:35" s="37" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="37">
         <v>17</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="37">
         <v>2.5997217079857302</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="50">
+      <c r="L8" s="37">
         <v>3.7227499997243198E-3</v>
       </c>
-      <c r="M8" s="50">
+      <c r="M8" s="37">
         <v>0.20751433915982201</v>
       </c>
-      <c r="N8" s="50">
+      <c r="N8" s="37">
         <v>0.94736842105263097</v>
       </c>
-      <c r="O8" s="50">
+      <c r="O8" s="37">
         <v>0.66666666666666596</v>
       </c>
-      <c r="P8" s="50">
+      <c r="P8" s="37">
         <v>0.78260869565217395</v>
       </c>
-      <c r="Q8" s="50">
+      <c r="Q8" s="37">
         <v>0.18181818181818099</v>
       </c>
-      <c r="AC8" s="62"/>
-    </row>
-    <row r="9" spans="1:35" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50">
+      <c r="AC8" s="47"/>
+    </row>
+    <row r="9" spans="1:35" s="37" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="37">
         <v>4</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="37">
         <v>68.521575916005503</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="L9" s="50">
+      <c r="L9" s="37">
         <v>1.2745333020575299E-2</v>
       </c>
-      <c r="M9" s="50">
+      <c r="M9" s="37">
         <v>0.29578954665861401</v>
       </c>
-      <c r="N9" s="50">
+      <c r="N9" s="37">
         <v>0.57894736842105199</v>
       </c>
-      <c r="O9" s="50">
+      <c r="O9" s="37">
         <v>0.78571428571428503</v>
       </c>
-      <c r="P9" s="50">
+      <c r="P9" s="37">
         <v>0.66666666666666596</v>
       </c>
-      <c r="Q9" s="50">
+      <c r="Q9" s="37">
         <v>0.72727272727272696</v>
       </c>
-      <c r="AC9" s="62"/>
-    </row>
-    <row r="10" spans="1:35" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50">
+      <c r="AC9" s="47"/>
+    </row>
+    <row r="10" spans="1:35" s="37" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="37">
         <v>4.7643824999977298</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="37">
         <v>8.1201082997722496E-2</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="37">
         <v>0.23441336786115</v>
       </c>
-      <c r="N10" s="50">
+      <c r="N10" s="37">
         <v>0.84210526315789402</v>
       </c>
-      <c r="O10" s="50">
+      <c r="O10" s="37">
         <v>0.69565217391304301</v>
       </c>
-      <c r="P10" s="50">
+      <c r="P10" s="37">
         <v>0.76190476190476097</v>
       </c>
-      <c r="Q10" s="50">
+      <c r="Q10" s="37">
         <v>0.36363636363636298</v>
       </c>
-      <c r="AC10" s="62"/>
+      <c r="AC10" s="47"/>
     </row>
     <row r="11" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AB11" s="6"/>
@@ -1737,7 +1724,7 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
-      <c r="AC12" s="68"/>
+      <c r="AC12" s="51"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
       <c r="AF12" s="6"/>
@@ -1747,28 +1734,28 @@
     </row>
     <row r="13" spans="1:35" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S13" s="6"/>
-      <c r="T13" s="34" t="s">
+      <c r="T13" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="47" t="s">
+      <c r="U13" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="V13" s="47" t="s">
+      <c r="V13" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="W13" s="36" t="s">
+      <c r="W13" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="X13" s="56" t="s">
+      <c r="X13" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="Y13" s="49" t="s">
+      <c r="Y13" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="Z13" s="49" t="s">
+      <c r="Z13" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AA13" s="49" t="s">
+      <c r="AA13" s="57" t="s">
         <v>4</v>
       </c>
       <c r="AB13" s="6"/>
@@ -1776,46 +1763,46 @@
     </row>
     <row r="14" spans="1:35" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S14" s="6"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
       <c r="AB14" s="6"/>
       <c r="AH14" s="6"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="S15" s="6"/>
-      <c r="T15" s="52" t="s">
+      <c r="T15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="U15" s="42" t="s">
+      <c r="U15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="43" t="s">
+      <c r="V15" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="W15" s="44">
-        <f>L5</f>
+      <c r="W15" s="34">
+        <f t="shared" ref="W15:Z20" si="0">L5</f>
         <v>6.2812416988890604E-2</v>
       </c>
-      <c r="X15" s="44">
-        <f>M5</f>
+      <c r="X15" s="34">
+        <f t="shared" si="0"/>
         <v>0.56937799043062198</v>
       </c>
-      <c r="Y15" s="44">
-        <f>N5</f>
+      <c r="Y15" s="34">
+        <f t="shared" si="0"/>
         <v>0.84210526315789402</v>
       </c>
-      <c r="Z15" s="44">
-        <f>O5</f>
+      <c r="Z15" s="34">
+        <f t="shared" si="0"/>
         <v>0.84210526315789402</v>
       </c>
-      <c r="AA15" s="44">
-        <f>Q5</f>
+      <c r="AA15" s="34">
+        <f t="shared" ref="AA15:AA20" si="1">Q5</f>
         <v>0.72727272727272696</v>
       </c>
       <c r="AB15" s="6"/>
@@ -1823,31 +1810,31 @@
     </row>
     <row r="16" spans="1:35" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S16" s="6"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="39" t="s">
+      <c r="T16" s="40"/>
+      <c r="U16" s="30" t="s">
         <v>26</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>52</v>
       </c>
       <c r="W16" s="2">
-        <f>L6</f>
+        <f t="shared" si="0"/>
         <v>5.3513499995460699E-2</v>
       </c>
       <c r="X16" s="2">
-        <f>M6</f>
+        <f t="shared" si="0"/>
         <v>0.43808582711518002</v>
       </c>
       <c r="Y16" s="2">
-        <f>N6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z16" s="2">
-        <f>O6</f>
+        <f t="shared" si="0"/>
         <v>0.70370370370370305</v>
       </c>
       <c r="AA16" s="2">
-        <f>Q6</f>
+        <f t="shared" si="1"/>
         <v>0.27272727272727199</v>
       </c>
       <c r="AB16" s="6"/>
@@ -1855,33 +1842,33 @@
     </row>
     <row r="17" spans="19:35" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S17" s="6"/>
-      <c r="T17" s="52" t="s">
+      <c r="T17" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="U17" s="42" t="s">
+      <c r="U17" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="V17" s="43" t="s">
+      <c r="V17" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="W17" s="44">
-        <f>L7</f>
+      <c r="W17" s="34">
+        <f t="shared" si="0"/>
         <v>6.3386250112671396E-3</v>
       </c>
-      <c r="X17" s="44">
-        <f>M7</f>
+      <c r="X17" s="34">
+        <f t="shared" si="0"/>
         <v>0.39795757799683601</v>
       </c>
-      <c r="Y17" s="44">
-        <f>N7</f>
+      <c r="Y17" s="34">
+        <f t="shared" si="0"/>
         <v>0.89473684210526305</v>
       </c>
-      <c r="Z17" s="44">
-        <f>O7</f>
+      <c r="Z17" s="34">
+        <f t="shared" si="0"/>
         <v>0.73913043478260798</v>
       </c>
-      <c r="AA17" s="45">
-        <f>Q7</f>
+      <c r="AA17" s="35">
+        <f t="shared" si="1"/>
         <v>0.45454545454545398</v>
       </c>
       <c r="AB17" s="6"/>
@@ -1889,31 +1876,31 @@
     </row>
     <row r="18" spans="19:35" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S18" s="6"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="39" t="s">
+      <c r="T18" s="41"/>
+      <c r="U18" s="30" t="s">
         <v>26</v>
       </c>
       <c r="V18" s="12" t="s">
         <v>149</v>
       </c>
       <c r="W18" s="4">
-        <f>L8</f>
+        <f t="shared" si="0"/>
         <v>3.7227499997243198E-3</v>
       </c>
       <c r="X18" s="4">
-        <f>M8</f>
+        <f t="shared" si="0"/>
         <v>0.20751433915982201</v>
       </c>
       <c r="Y18" s="4">
-        <f>N8</f>
+        <f t="shared" si="0"/>
         <v>0.94736842105263097</v>
       </c>
       <c r="Z18" s="4">
-        <f>O8</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666596</v>
       </c>
-      <c r="AA18" s="46">
-        <f>Q8</f>
+      <c r="AA18" s="36">
+        <f t="shared" si="1"/>
         <v>0.18181818181818099</v>
       </c>
       <c r="AB18" s="6"/>
@@ -1921,33 +1908,33 @@
     </row>
     <row r="19" spans="19:35" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S19" s="6"/>
-      <c r="T19" s="55" t="s">
+      <c r="T19" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="U19" s="42" t="s">
+      <c r="U19" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="V19" s="43" t="s">
+      <c r="V19" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="W19" s="44">
-        <f>L9</f>
+      <c r="W19" s="34">
+        <f t="shared" si="0"/>
         <v>1.2745333020575299E-2</v>
       </c>
-      <c r="X19" s="44">
-        <f>M9</f>
+      <c r="X19" s="34">
+        <f t="shared" si="0"/>
         <v>0.29578954665861401</v>
       </c>
-      <c r="Y19" s="44">
-        <f>N9</f>
+      <c r="Y19" s="34">
+        <f t="shared" si="0"/>
         <v>0.57894736842105199</v>
       </c>
-      <c r="Z19" s="44">
-        <f>O9</f>
+      <c r="Z19" s="34">
+        <f t="shared" si="0"/>
         <v>0.78571428571428503</v>
       </c>
-      <c r="AA19" s="44">
-        <f>Q9</f>
+      <c r="AA19" s="34">
+        <f t="shared" si="1"/>
         <v>0.72727272727272696</v>
       </c>
       <c r="AB19" s="6"/>
@@ -1955,31 +1942,31 @@
     </row>
     <row r="20" spans="19:35" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S20" s="6"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="39" t="s">
+      <c r="T20" s="31"/>
+      <c r="U20" s="30" t="s">
         <v>26</v>
       </c>
       <c r="V20" s="12" t="s">
         <v>52</v>
       </c>
       <c r="W20" s="4">
-        <f>L10</f>
+        <f t="shared" si="0"/>
         <v>8.1201082997722496E-2</v>
       </c>
       <c r="X20" s="4">
-        <f>M10</f>
+        <f t="shared" si="0"/>
         <v>0.23441336786115</v>
       </c>
       <c r="Y20" s="4">
-        <f>N10</f>
+        <f t="shared" si="0"/>
         <v>0.84210526315789402</v>
       </c>
       <c r="Z20" s="4">
-        <f>O10</f>
+        <f t="shared" si="0"/>
         <v>0.69565217391304301</v>
       </c>
       <c r="AA20" s="4">
-        <f>Q10</f>
+        <f t="shared" si="1"/>
         <v>0.36363636363636298</v>
       </c>
       <c r="AB20" s="6"/>
@@ -1996,12 +1983,13 @@
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
+      <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
     </row>
     <row r="22" spans="19:35" x14ac:dyDescent="0.2">
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
-      <c r="AC22" s="68"/>
+      <c r="AC22" s="51"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
       <c r="AF22" s="6"/>
@@ -2012,606 +2000,599 @@
     <row r="23" spans="19:35" ht="34" x14ac:dyDescent="0.2">
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
-      <c r="AC23" s="58" t="s">
+      <c r="AC23" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="AD23" s="59" t="s">
+      <c r="AD23" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="AE23" s="59" t="s">
+      <c r="AE23" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="AF23" s="59" t="s">
+      <c r="AF23" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="AG23" s="69" t="s">
-        <v>157</v>
-      </c>
+      <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
     </row>
     <row r="24" spans="19:35" x14ac:dyDescent="0.2">
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="65">
-        <v>73</v>
-      </c>
-      <c r="AD24" s="74" t="s">
+      <c r="AC24" s="48">
+        <v>55</v>
+      </c>
+      <c r="AD24" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AE24" s="72" t="s">
+      <c r="AE24" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="AF24" s="70">
-        <v>0.56666666666666599</v>
-      </c>
-      <c r="AG24" s="71" t="s">
-        <v>155</v>
-      </c>
+      <c r="AF24" s="52">
+        <v>0.50095238095238004</v>
+      </c>
+      <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
     </row>
     <row r="25" spans="19:35" x14ac:dyDescent="0.2">
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
-      <c r="AC25" s="65">
-        <v>12</v>
-      </c>
-      <c r="AD25" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE25" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF25" s="67">
-        <v>0.94666666666666599</v>
-      </c>
-      <c r="AG25" s="64"/>
+      <c r="AC25" s="48">
+        <v>140</v>
+      </c>
+      <c r="AD25" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE25" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF25" s="50">
+        <v>0.50666666666666604</v>
+      </c>
+      <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
     </row>
     <row r="26" spans="19:35" x14ac:dyDescent="0.2">
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="65">
-        <v>45</v>
-      </c>
-      <c r="AD26" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE26" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF26" s="67">
-        <v>0.76666666666666605</v>
-      </c>
-      <c r="AG26" s="64"/>
+      <c r="AC26" s="48">
+        <v>128</v>
+      </c>
+      <c r="AD26" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE26" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF26" s="50">
+        <v>0.52666666666666595</v>
+      </c>
+      <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
     </row>
     <row r="27" spans="19:35" x14ac:dyDescent="0.2">
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
-      <c r="AC27" s="65">
-        <v>26</v>
-      </c>
-      <c r="AD27" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE27" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF27" s="67">
-        <v>0.8</v>
-      </c>
-      <c r="AG27" s="64"/>
+      <c r="AC27" s="48">
+        <v>144</v>
+      </c>
+      <c r="AD27" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE27" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF27" s="50">
+        <v>0.52666666666666595</v>
+      </c>
+      <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
     </row>
     <row r="28" spans="19:35" x14ac:dyDescent="0.2">
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
-      <c r="AC28" s="65">
-        <v>29</v>
-      </c>
-      <c r="AD28" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE28" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF28" s="67">
-        <v>0.65333333333333299</v>
-      </c>
-      <c r="AG28" s="64"/>
+      <c r="AC28" s="48">
+        <v>109</v>
+      </c>
+      <c r="AD28" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE28" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF28" s="50">
+        <v>0.54666666666666597</v>
+      </c>
+      <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
     </row>
     <row r="29" spans="19:35" x14ac:dyDescent="0.2">
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="65">
-        <v>55</v>
-      </c>
-      <c r="AD29" s="74" t="s">
+      <c r="AC29" s="48">
+        <v>73</v>
+      </c>
+      <c r="AD29" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AE29" s="73" t="s">
+      <c r="AE29" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="AF29" s="67">
-        <v>0.50095238095238004</v>
-      </c>
-      <c r="AG29" s="71" t="s">
-        <v>155</v>
-      </c>
+      <c r="AF29" s="50">
+        <v>0.56666666666666599</v>
+      </c>
+      <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
     </row>
     <row r="30" spans="19:35" x14ac:dyDescent="0.2">
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
-      <c r="AC30" s="65">
-        <v>69</v>
-      </c>
-      <c r="AD30" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE30" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF30" s="67">
-        <v>0.81238095238095198</v>
-      </c>
-      <c r="AG30" s="64"/>
+      <c r="AC30" s="48">
+        <v>101</v>
+      </c>
+      <c r="AD30" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE30" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF30" s="50">
+        <v>0.57333333333333303</v>
+      </c>
+      <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
     </row>
     <row r="31" spans="19:35" x14ac:dyDescent="0.2">
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
-      <c r="AC31" s="65">
-        <v>18</v>
-      </c>
-      <c r="AD31" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE31" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF31" s="67">
-        <v>0.85333333333333306</v>
-      </c>
-      <c r="AG31" s="64"/>
+      <c r="AC31" s="48">
+        <v>117</v>
+      </c>
+      <c r="AD31" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE31" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF31" s="50">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
     </row>
     <row r="32" spans="19:35" x14ac:dyDescent="0.2">
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
-      <c r="AC32" s="65">
-        <v>19</v>
-      </c>
-      <c r="AD32" s="74" t="s">
+      <c r="AC32" s="48">
+        <v>64</v>
+      </c>
+      <c r="AD32" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AE32" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF32" s="67">
-        <v>0.89904761904761898</v>
-      </c>
-      <c r="AG32" s="64"/>
+      <c r="AE32" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF32" s="50">
+        <v>0.586666666666666</v>
+      </c>
+      <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
     </row>
     <row r="33" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
-      <c r="AC33" s="65">
-        <v>9</v>
-      </c>
-      <c r="AD33" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE33" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF33" s="67">
-        <v>0.98666666666666603</v>
-      </c>
-      <c r="AG33" s="64"/>
+      <c r="AC33" s="48">
+        <v>110</v>
+      </c>
+      <c r="AD33" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE33" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF33" s="50">
+        <v>0.60666666666666602</v>
+      </c>
+      <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
     </row>
     <row r="34" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="65">
-        <v>36</v>
-      </c>
-      <c r="AD34" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE34" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF34" s="67">
-        <v>0.84</v>
-      </c>
-      <c r="AG34" s="64"/>
+      <c r="AC34" s="48">
+        <v>123</v>
+      </c>
+      <c r="AD34" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE34" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF34" s="50">
+        <v>0.62666666666666604</v>
+      </c>
+      <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
     </row>
     <row r="35" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
-      <c r="AC35" s="65">
-        <v>56</v>
-      </c>
-      <c r="AD35" s="74" t="s">
+      <c r="AC35" s="48">
+        <v>131</v>
+      </c>
+      <c r="AD35" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE35" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="AE35" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF35" s="67">
-        <v>0.832380952380952</v>
-      </c>
-      <c r="AG35" s="64"/>
+      <c r="AF35" s="50">
+        <v>0.64666666666666595</v>
+      </c>
+      <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
     </row>
     <row r="36" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
-      <c r="AC36" s="65">
-        <v>30</v>
-      </c>
-      <c r="AD36" s="74" t="s">
+      <c r="AC36" s="48">
+        <v>29</v>
+      </c>
+      <c r="AD36" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AE36" s="65" t="s">
+      <c r="AE36" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="AF36" s="67">
-        <v>0.71333333333333304</v>
-      </c>
-      <c r="AG36" s="64"/>
+      <c r="AF36" s="50">
+        <v>0.65333333333333299</v>
+      </c>
+      <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
     </row>
     <row r="37" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
-      <c r="AC37" s="65">
-        <v>68</v>
-      </c>
-      <c r="AD37" s="74" t="s">
+      <c r="AC37" s="48">
+        <v>30</v>
+      </c>
+      <c r="AD37" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AE37" s="65" t="s">
+      <c r="AE37" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="AF37" s="67">
-        <v>0.89333333333333298</v>
-      </c>
-      <c r="AG37" s="64"/>
+      <c r="AF37" s="50">
+        <v>0.71333333333333304</v>
+      </c>
+      <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
     </row>
     <row r="38" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
-      <c r="AC38" s="65">
-        <v>64</v>
-      </c>
-      <c r="AD38" s="74" t="s">
+      <c r="AC38" s="48">
+        <v>45</v>
+      </c>
+      <c r="AD38" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AE38" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF38" s="67">
-        <v>0.586666666666666</v>
-      </c>
-      <c r="AG38" s="71" t="s">
+      <c r="AE38" s="48" t="s">
         <v>155</v>
       </c>
+      <c r="AF38" s="50">
+        <v>0.76666666666666605</v>
+      </c>
+      <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
     </row>
     <row r="39" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
-      <c r="AC39" s="65">
-        <v>31</v>
-      </c>
-      <c r="AD39" s="74" t="s">
+      <c r="AC39" s="48">
+        <v>136</v>
+      </c>
+      <c r="AD39" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE39" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="AE39" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF39" s="67">
-        <v>0.96666666666666601</v>
-      </c>
-      <c r="AG39" s="64"/>
+      <c r="AF39" s="50">
+        <v>0.78</v>
+      </c>
+      <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
     </row>
     <row r="40" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
-      <c r="AC40" s="65">
-        <v>76</v>
-      </c>
-      <c r="AD40" s="74" t="s">
+      <c r="AC40" s="48">
+        <v>26</v>
+      </c>
+      <c r="AD40" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AE40" s="65" t="s">
+      <c r="AE40" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="AF40" s="67">
-        <v>0.85333333333333306</v>
-      </c>
-      <c r="AG40" s="64"/>
+      <c r="AF40" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="AG40" s="6"/>
       <c r="AH40" s="6"/>
       <c r="AI40" s="6"/>
     </row>
     <row r="41" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
-      <c r="AC41" s="65">
-        <v>82</v>
-      </c>
-      <c r="AD41" s="74" t="s">
+      <c r="AC41" s="48">
+        <v>69</v>
+      </c>
+      <c r="AD41" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AE41" s="65" t="s">
+      <c r="AE41" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="AF41" s="67">
-        <v>0.88</v>
-      </c>
-      <c r="AG41" s="64"/>
+      <c r="AF41" s="50">
+        <v>0.81238095238095198</v>
+      </c>
+      <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
     </row>
     <row r="42" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
-      <c r="AC42" s="65">
-        <v>78</v>
-      </c>
-      <c r="AD42" s="74" t="s">
+      <c r="AC42" s="48">
+        <v>56</v>
+      </c>
+      <c r="AD42" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AE42" s="65" t="s">
+      <c r="AE42" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="AF42" s="67">
-        <v>0.95333333333333303</v>
-      </c>
-      <c r="AG42" s="64"/>
+      <c r="AF42" s="50">
+        <v>0.832380952380952</v>
+      </c>
+      <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
     </row>
     <row r="43" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
-      <c r="AC43" s="65">
-        <v>128</v>
-      </c>
-      <c r="AD43" s="74" t="s">
+      <c r="AC43" s="48">
+        <v>127</v>
+      </c>
+      <c r="AD43" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="AE43" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF43" s="67">
-        <v>0.52666666666666595</v>
-      </c>
-      <c r="AG43" s="64"/>
+      <c r="AE43" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF43" s="50">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
     </row>
     <row r="44" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
-      <c r="AC44" s="65">
-        <v>117</v>
-      </c>
-      <c r="AD44" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE44" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF44" s="67">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AG44" s="64"/>
+      <c r="AC44" s="48">
+        <v>36</v>
+      </c>
+      <c r="AD44" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE44" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF44" s="50">
+        <v>0.84</v>
+      </c>
+      <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
     </row>
     <row r="45" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
-      <c r="AC45" s="65">
-        <v>101</v>
-      </c>
-      <c r="AD45" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE45" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF45" s="67">
-        <v>0.57333333333333303</v>
-      </c>
-      <c r="AG45" s="64"/>
+      <c r="AC45" s="48">
+        <v>18</v>
+      </c>
+      <c r="AD45" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE45" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF45" s="50">
+        <v>0.85333333333333306</v>
+      </c>
+      <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
     </row>
     <row r="46" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
-      <c r="AC46" s="65">
-        <v>110</v>
-      </c>
-      <c r="AD46" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE46" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF46" s="67">
-        <v>0.60666666666666602</v>
-      </c>
-      <c r="AG46" s="64"/>
+      <c r="AC46" s="48">
+        <v>76</v>
+      </c>
+      <c r="AD46" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE46" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF46" s="50">
+        <v>0.85333333333333306</v>
+      </c>
+      <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
     </row>
     <row r="47" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
-      <c r="AC47" s="65">
-        <v>144</v>
-      </c>
-      <c r="AD47" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE47" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF47" s="67">
-        <v>0.52666666666666595</v>
-      </c>
-      <c r="AG47" s="64"/>
+      <c r="AC47" s="48">
+        <v>82</v>
+      </c>
+      <c r="AD47" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE47" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF47" s="50">
+        <v>0.88</v>
+      </c>
+      <c r="AG47" s="6"/>
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
     </row>
     <row r="48" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
-      <c r="AC48" s="65">
-        <v>109</v>
-      </c>
-      <c r="AD48" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE48" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF48" s="67">
-        <v>0.54666666666666597</v>
-      </c>
-      <c r="AG48" s="64"/>
+      <c r="AC48" s="48">
+        <v>68</v>
+      </c>
+      <c r="AD48" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE48" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF48" s="50">
+        <v>0.89333333333333298</v>
+      </c>
+      <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
     </row>
-    <row r="49" spans="27:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="21:35" x14ac:dyDescent="0.2">
+      <c r="U49" t="s">
+        <v>157</v>
+      </c>
       <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
-      <c r="AC49" s="65">
-        <v>127</v>
-      </c>
-      <c r="AD49" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE49" s="73" t="s">
+      <c r="AC49" s="48">
+        <v>19</v>
+      </c>
+      <c r="AD49" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AF49" s="67">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AG49" s="63"/>
+      <c r="AE49" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF49" s="50">
+        <v>0.89904761904761898</v>
+      </c>
+      <c r="AG49" s="6"/>
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
     </row>
-    <row r="50" spans="27:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="21:35" x14ac:dyDescent="0.2">
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
-      <c r="AC50" s="65">
-        <v>131</v>
-      </c>
-      <c r="AD50" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE50" s="73" t="s">
+      <c r="AC50" s="48">
+        <v>12</v>
+      </c>
+      <c r="AD50" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AF50" s="67">
-        <v>0.64666666666666595</v>
-      </c>
-      <c r="AG50" s="71" t="s">
+      <c r="AE50" s="48" t="s">
         <v>155</v>
       </c>
+      <c r="AF50" s="50">
+        <v>0.94666666666666599</v>
+      </c>
+      <c r="AG50" s="6"/>
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
     </row>
-    <row r="51" spans="27:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="21:35" x14ac:dyDescent="0.2">
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
-      <c r="AC51" s="65">
-        <v>136</v>
-      </c>
-      <c r="AD51" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE51" s="73" t="s">
+      <c r="AC51" s="48">
+        <v>78</v>
+      </c>
+      <c r="AD51" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AF51" s="67">
-        <v>0.78</v>
-      </c>
-      <c r="AG51" s="63"/>
+      <c r="AE51" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF51" s="50">
+        <v>0.95333333333333303</v>
+      </c>
+      <c r="AG51" s="6"/>
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
     </row>
-    <row r="52" spans="27:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="21:35" x14ac:dyDescent="0.2">
       <c r="AA52" s="6"/>
       <c r="AB52" s="6"/>
-      <c r="AC52" s="65">
-        <v>140</v>
-      </c>
-      <c r="AD52" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE52" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF52" s="67">
-        <v>0.50666666666666604</v>
-      </c>
-      <c r="AG52" s="64"/>
+      <c r="AC52" s="48">
+        <v>31</v>
+      </c>
+      <c r="AD52" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE52" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF52" s="50">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="AG52" s="6"/>
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
     </row>
-    <row r="53" spans="27:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="21:35" x14ac:dyDescent="0.2">
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
-      <c r="AC53" s="66">
-        <v>123</v>
+      <c r="AC53" s="49">
+        <v>9</v>
       </c>
       <c r="AD53" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE53" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF53" s="75">
-        <v>0.62666666666666604</v>
-      </c>
-      <c r="AG53" s="76"/>
+        <v>155</v>
+      </c>
+      <c r="AE53" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF53" s="56">
+        <v>0.98666666666666603</v>
+      </c>
+      <c r="AG53" s="6"/>
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
     </row>
-    <row r="54" spans="27:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="21:35" x14ac:dyDescent="0.2">
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
-      <c r="AC54" s="68"/>
+      <c r="AC54" s="51"/>
       <c r="AD54" s="6"/>
       <c r="AE54" s="6"/>
       <c r="AF54" s="6"/>
@@ -2619,9 +2600,9 @@
       <c r="AH54" s="6"/>
       <c r="AI54" s="6"/>
     </row>
-    <row r="55" spans="27:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="21:35" x14ac:dyDescent="0.2">
       <c r="AB55" s="6"/>
-      <c r="AC55" s="68"/>
+      <c r="AC55" s="51"/>
       <c r="AD55" s="6"/>
       <c r="AE55" s="6"/>
       <c r="AF55" s="6"/>
@@ -2630,6 +2611,9 @@
       <c r="AI55" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AC24:AG53">
+    <sortCondition ref="AF24:AF53"/>
+  </sortState>
   <mergeCells count="8">
     <mergeCell ref="Z13:Z14"/>
     <mergeCell ref="AA13:AA14"/>
@@ -2688,46 +2672,46 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="69" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="33"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2922,46 +2906,46 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="69" t="s">
         <v>5</v>
       </c>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="33"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="70"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -3158,46 +3142,46 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G37" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="30" t="s">
+      <c r="I37" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="J37" s="32" t="s">
+      <c r="J37" s="69" t="s">
         <v>5</v>
       </c>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="33"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="70"/>
       <c r="K38" s="6"/>
       <c r="N38" t="s">
         <v>92</v>
@@ -3405,46 +3389,46 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="30" t="s">
+      <c r="F53" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G53" s="28" t="s">
+      <c r="G53" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="30" t="s">
+      <c r="H53" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I53" s="30" t="s">
+      <c r="I53" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="J53" s="32" t="s">
+      <c r="J53" s="69" t="s">
         <v>5</v>
       </c>
       <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="33"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="70"/>
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -3662,46 +3646,46 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="36" t="s">
+      <c r="D70" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="36" t="s">
+      <c r="E70" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="30" t="s">
+      <c r="F70" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G70" s="28" t="s">
+      <c r="G70" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="30" t="s">
+      <c r="H70" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I70" s="30" t="s">
+      <c r="I70" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="J70" s="32" t="s">
+      <c r="J70" s="69" t="s">
         <v>5</v>
       </c>
       <c r="K70" s="6"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="33"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="6"/>
     </row>
     <row r="72" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -3905,46 +3889,46 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="36" t="s">
+      <c r="D87" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="36" t="s">
+      <c r="E87" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="30" t="s">
+      <c r="F87" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G87" s="28" t="s">
+      <c r="G87" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H87" s="30" t="s">
+      <c r="H87" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I87" s="30" t="s">
+      <c r="I87" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="J87" s="32" t="s">
+      <c r="J87" s="69" t="s">
         <v>5</v>
       </c>
       <c r="K87" s="6"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="33"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="70"/>
       <c r="K88" s="6"/>
     </row>
     <row r="89" spans="1:21" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -4167,46 +4151,46 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
-      <c r="B104" s="34" t="s">
+      <c r="B104" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C104" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D104" s="36" t="s">
+      <c r="D104" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="36" t="s">
+      <c r="E104" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="30" t="s">
+      <c r="F104" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G104" s="28" t="s">
+      <c r="G104" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H104" s="30" t="s">
+      <c r="H104" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I104" s="30" t="s">
+      <c r="I104" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="J104" s="32" t="s">
+      <c r="J104" s="69" t="s">
         <v>5</v>
       </c>
       <c r="K104" s="6"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="31"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="33"/>
+      <c r="B105" s="71"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="70"/>
       <c r="K105" s="6"/>
     </row>
     <row r="106" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -4413,46 +4397,46 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C120" s="36" t="s">
+      <c r="C120" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="36" t="s">
+      <c r="D120" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="36" t="s">
+      <c r="E120" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="30" t="s">
+      <c r="F120" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G120" s="28" t="s">
+      <c r="G120" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H120" s="30" t="s">
+      <c r="H120" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I120" s="30" t="s">
+      <c r="I120" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="J120" s="32" t="s">
+      <c r="J120" s="69" t="s">
         <v>5</v>
       </c>
       <c r="K120" s="6"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
-      <c r="B121" s="35"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="31"/>
-      <c r="I121" s="31"/>
-      <c r="J121" s="33"/>
+      <c r="B121" s="71"/>
+      <c r="C121" s="63"/>
+      <c r="D121" s="63"/>
+      <c r="E121" s="63"/>
+      <c r="F121" s="63"/>
+      <c r="G121" s="67"/>
+      <c r="H121" s="63"/>
+      <c r="I121" s="63"/>
+      <c r="J121" s="70"/>
       <c r="K121" s="6"/>
     </row>
     <row r="122" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4756,53 +4740,53 @@
     <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="1:17" s="28" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B3" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="29" t="s">
         <v>139</v>
       </c>
     </row>
